--- a/inheritance_and_dependencies/dependency_2.xlsx
+++ b/inheritance_and_dependencies/dependency_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Dependents</t>
   </si>
@@ -31,25 +31,7 @@
     <t>Bike</t>
   </si>
   <si>
-    <t>Vehicle</t>
-  </si>
-  <si>
-    <t>CarPollutionPermit</t>
-  </si>
-  <si>
-    <t>Farzi</t>
-  </si>
-  <si>
-    <t>BikePollutionPermit</t>
-  </si>
-  <si>
     <t>__init__</t>
-  </si>
-  <si>
-    <t>mileage_calculator</t>
-  </si>
-  <si>
-    <t>check_permit</t>
   </si>
   <si>
     <t>pollution_permit</t>
@@ -413,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,119 +414,37 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="C3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="C4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="C5" t="s">
-        <v>3</v>
+      <c r="B5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="C6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
       <c r="C8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="C25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="C26" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/inheritance_and_dependencies/dependency_2.xlsx
+++ b/inheritance_and_dependencies/dependency_2.xlsx
@@ -1,108 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
   </bookViews>
   <sheets>
-    <sheet name="class_to_child_and_dependents" sheetId="1" r:id="rId1"/>
+    <sheet name="class_to_child_and_dependents" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>Methods/Children</t>
-  </si>
-  <si>
-    <t>➜</t>
-  </si>
-  <si>
-    <t>←</t>
-  </si>
-  <si>
-    <t>CarPollutionPermit</t>
-  </si>
-  <si>
-    <t>BikePollutionPermit</t>
-  </si>
-  <si>
-    <t>TractorPollutionPermit</t>
-  </si>
-  <si>
-    <t>TractorPesticides</t>
-  </si>
-  <si>
-    <t>Vehicle</t>
-  </si>
-  <si>
-    <t>Car</t>
-  </si>
-  <si>
-    <t>Farzi</t>
-  </si>
-  <si>
-    <t>Bike</t>
-  </si>
-  <si>
-    <t>__init__</t>
-  </si>
-  <si>
-    <t>check_permit</t>
-  </si>
-  <si>
-    <t>fetch_tractor</t>
-  </si>
-  <si>
-    <t>fetch_pesticides_permit</t>
-  </si>
-  <si>
-    <t>mileage_calculator</t>
-  </si>
-  <si>
-    <t>pollution_permit</t>
-  </si>
-  <si>
-    <t>check_farzi</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,21 +64,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -427,180 +375,314 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="5:10">
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="5:10">
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="5:10">
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="5:10">
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="5:10">
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="5:10">
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="5:10">
-      <c r="J7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="5:10">
-      <c r="I8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="5:10">
-      <c r="J9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="5:10">
-      <c r="J10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="5:10">
-      <c r="I11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="5:10">
-      <c r="J12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="5:10">
-      <c r="I13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="5:10">
-      <c r="J14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="5:10">
-      <c r="J15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="5:10">
-      <c r="J16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="5:10">
-      <c r="J17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="5:10">
-      <c r="H18" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="5:10">
-      <c r="J19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="5:10">
-      <c r="J20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="5:10">
-      <c r="E21" t="s">
-        <v>2</v>
-      </c>
-      <c r="I21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="5:10">
-      <c r="J22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="5:10">
-      <c r="J23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="5:10">
-      <c r="E24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="5:10">
-      <c r="J25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="5:10">
-      <c r="J26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="5:10">
-      <c r="J27" t="s">
-        <v>18</v>
+    <row r="1">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Methods/Children</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CarPollutionPermit</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>__init__</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>check_permit</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>BikePollutionPermit</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>__init__</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="2" t="n"/>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="2" t="n"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>check_permit</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="n"/>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>TractorPollutionPermit</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="2" t="n"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>fetch_tractor</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>TractorPesticides</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>TractorPesticides</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>fetch_pesticides_permit</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="2" t="n"/>
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vehicle</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="2" t="n"/>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="2" t="n"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>__init__</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="2" t="n"/>
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="2" t="n"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>mileage_calculator</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="2" t="n"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="2" t="n"/>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="2" t="n"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Bike</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="2" t="n"/>
+      <c r="C18" s="2" t="n"/>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="2" t="n"/>
+      <c r="C19" s="2" t="n"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>__init__</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="2" t="n"/>
+      <c r="C20" s="2" t="n"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>pollution_permit</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>→</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n"/>
+      <c r="C21" s="2" t="n"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Farzi</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n"/>
+      <c r="B22" s="2" t="n"/>
+      <c r="C22" s="2" t="n"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>__init__</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="2" t="n"/>
+      <c r="C23" s="2" t="n"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>check_farzi</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>←</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Bike</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>__init__</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>pollution_permit</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>check_farzi</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/inheritance_and_dependencies/dependency_2.xlsx
+++ b/inheritance_and_dependencies/dependency_2.xlsx
@@ -380,7 +380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -392,13 +392,12 @@
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="1" t="n"/>
       <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Parent</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Methods/Children</t>
         </is>
@@ -410,12 +409,7 @@
           <t>→</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>→</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>CarPollutionPermit</t>
         </is>
@@ -423,8 +417,7 @@
     </row>
     <row r="3">
       <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="F3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>__init__</t>
         </is>
@@ -432,8 +425,7 @@
     </row>
     <row r="4">
       <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="F4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>check_permit</t>
         </is>
@@ -446,8 +438,7 @@
         </is>
       </c>
       <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>BikePollutionPermit</t>
         </is>
@@ -456,8 +447,7 @@
     <row r="6">
       <c r="B6" s="2" t="n"/>
       <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="F6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>__init__</t>
         </is>
@@ -466,8 +456,7 @@
     <row r="7">
       <c r="B7" s="2" t="n"/>
       <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="F7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>check_permit</t>
         </is>
@@ -476,8 +465,7 @@
     <row r="8">
       <c r="B8" s="2" t="n"/>
       <c r="C8" s="2" t="n"/>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>TractorPollutionPermit</t>
         </is>
@@ -486,8 +474,7 @@
     <row r="9">
       <c r="B9" s="2" t="n"/>
       <c r="C9" s="2" t="n"/>
-      <c r="D9" s="2" t="n"/>
-      <c r="F9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>fetch_tractor</t>
         </is>
@@ -496,8 +483,7 @@
     <row r="10">
       <c r="B10" s="2" t="n"/>
       <c r="C10" s="2" t="n"/>
-      <c r="D10" s="2" t="n"/>
-      <c r="F10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>TractorPesticides</t>
         </is>
@@ -506,8 +492,7 @@
     <row r="11">
       <c r="B11" s="2" t="n"/>
       <c r="C11" s="2" t="n"/>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>TractorPesticides</t>
         </is>
@@ -516,8 +501,7 @@
     <row r="12">
       <c r="B12" s="2" t="n"/>
       <c r="C12" s="2" t="n"/>
-      <c r="D12" s="2" t="n"/>
-      <c r="F12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>fetch_pesticides_permit</t>
         </is>
@@ -526,8 +510,7 @@
     <row r="13">
       <c r="B13" s="2" t="n"/>
       <c r="C13" s="2" t="n"/>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Vehicle</t>
         </is>
@@ -536,8 +519,7 @@
     <row r="14">
       <c r="B14" s="2" t="n"/>
       <c r="C14" s="2" t="n"/>
-      <c r="D14" s="2" t="n"/>
-      <c r="F14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>__init__</t>
         </is>
@@ -546,8 +528,7 @@
     <row r="15">
       <c r="B15" s="2" t="n"/>
       <c r="C15" s="2" t="n"/>
-      <c r="D15" s="2" t="n"/>
-      <c r="F15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>mileage_calculator</t>
         </is>
@@ -556,8 +537,7 @@
     <row r="16">
       <c r="B16" s="2" t="n"/>
       <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="F16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Car</t>
         </is>
@@ -566,8 +546,7 @@
     <row r="17">
       <c r="B17" s="2" t="n"/>
       <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="n"/>
-      <c r="F17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Bike</t>
         </is>
@@ -575,13 +554,12 @@
     </row>
     <row r="18">
       <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>←</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Car</t>
         </is>
@@ -590,7 +568,7 @@
     <row r="19">
       <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="n"/>
-      <c r="F19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>__init__</t>
         </is>
@@ -599,7 +577,7 @@
     <row r="20">
       <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="n"/>
-      <c r="F20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>pollution_permit</t>
         </is>
@@ -613,7 +591,7 @@
       </c>
       <c r="B21" s="2" t="n"/>
       <c r="C21" s="2" t="n"/>
-      <c r="E21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Farzi</t>
         </is>
@@ -623,7 +601,7 @@
       <c r="A22" s="2" t="n"/>
       <c r="B22" s="2" t="n"/>
       <c r="C22" s="2" t="n"/>
-      <c r="F22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>__init__</t>
         </is>
@@ -633,7 +611,7 @@
       <c r="A23" s="2" t="n"/>
       <c r="B23" s="2" t="n"/>
       <c r="C23" s="2" t="n"/>
-      <c r="F23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>check_farzi</t>
         </is>
@@ -655,28 +633,28 @@
           <t>←</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Bike</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="F25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>__init__</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="F26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>pollution_permit</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="F27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>check_farzi</t>
         </is>

--- a/inheritance_and_dependencies/dependency_2.xlsx
+++ b/inheritance_and_dependencies/dependency_2.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
   </bookViews>
   <sheets>
-    <sheet name="class_to_child_and_dependents" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sheet_one" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -375,7 +375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -387,6 +387,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="4" min="4" width="8.4"/>
+    <col customWidth="1" max="5" min="5" width="22.8"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n"/>
@@ -661,6 +665,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E10" r:id="rId1"/>
+    <hyperlink ref="E16" r:id="rId2"/>
+    <hyperlink ref="E17" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>